--- a/doc/03 申请表/PSI社区合作伙伴申请表.xlsx
+++ b/doc/03 申请表/PSI社区合作伙伴申请表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <r>
       <t>PSI</t>
@@ -62,6 +62,10 @@
   </si>
   <si>
     <t>简述两条想申请成为PSI社区合作伙伴的原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省/城市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,9 +180,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -191,11 +192,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,140 +505,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="54.75" customHeight="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B2" s="5" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="8" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B4" s="5" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="8" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="24.95" customHeight="1">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="35.1" customHeight="1">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G7" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B7" s="7">
+    <row r="8" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B8" s="7"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
       <c r="B9" s="7"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="10" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
       <c r="B10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B11" s="7"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B12" s="7"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="12" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
+    <row r="14" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
       <c r="B14" s="7"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" ht="24.95" customHeight="1" thickBot="1"/>
-    <row r="16" spans="2:7" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B16" s="6" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" ht="35.1" customHeight="1" thickBot="1"/>
+    <row r="17" spans="2:7" ht="35.1" customHeight="1" thickBot="1">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="8" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="6" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B14"/>
+  <mergeCells count="3">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B1:G1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
